--- a/Branches/2.0/doc/iResearch Version 2.0.xlsx
+++ b/Branches/2.0/doc/iResearch Version 2.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>Feature</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>19.   The note will be the same size and font of the source, analysts should be able to add this along with a superscript note in the headline of the table.</t>
-  </si>
-  <si>
-    <t>20.   In charts, there will be no gridlines and legends will appear at the bottom.</t>
   </si>
   <si>
     <t>21.   The headlines of charts will be like the tables, with a line above and below, same text size, line point spacing, bolding. They will also have a line below a source under just like in tables.</t>
@@ -131,6 +128,27 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. Use same margins for all pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24. Having Text Sections inside a layout table </t>
+  </si>
+  <si>
+    <t>25. Start page number from 2 not 1</t>
+  </si>
+  <si>
+    <t>26. Use the updated logo</t>
+  </si>
+  <si>
+    <t>27. Desclaimer font is 11 not 8</t>
+  </si>
+  <si>
+    <t>20.   In charts, there will be no gridlines and no legend for now</t>
+  </si>
+  <si>
+    <t>test fail</t>
   </si>
 </sst>
 </file>
@@ -199,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -215,6 +233,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -354,18 +375,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B3:F25">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4"/>
-  </autoFilter>
-  <sortState ref="B4:F25">
-    <sortCondition ref="F4:F25"/>
-    <sortCondition ref="D4:D25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B3:F30"/>
+  <sortState ref="B4:F26">
+    <sortCondition ref="F3:F26"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Feature" dataDxfId="4"/>
@@ -663,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -679,38 +692,38 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="25.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="51">
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -718,285 +731,382 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="25.5">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="25.5">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="25.5">
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="25.5">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="38.25">
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="89.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="38.25">
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="89.25">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" hidden="1">
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" hidden="1">
+    <row r="14" spans="2:6" ht="25.5">
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" ht="25.5" hidden="1">
+      <c r="F14" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="25.5">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" ht="25.5" hidden="1">
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" ht="25.5">
+      <c r="F16" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="38.25">
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="25.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="38.25" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" hidden="1">
+      <c r="F19" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="25.5">
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" hidden="1">
+      <c r="F20" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="25.5">
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" ht="25.5" hidden="1">
+      <c r="F21" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="25.5">
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="5">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="25.5">
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="25.5">
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="5">
-        <v>19</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Branches/2.0/doc/iResearch Version 2.0.xlsx
+++ b/Branches/2.0/doc/iResearch Version 2.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>Feature</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>20.   In charts, there will be no gridlines and no legend for now</t>
-  </si>
-  <si>
-    <t>test fail</t>
   </si>
 </sst>
 </file>
@@ -679,7 +676,7 @@
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -736,7 +733,9 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
         <v>2</v>
@@ -795,7 +794,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5">
@@ -914,7 +913,9 @@
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="5">
         <v>14</v>
@@ -927,7 +928,9 @@
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="5">
         <v>15</v>
@@ -940,7 +943,9 @@
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="5">
         <v>16</v>
@@ -953,7 +958,9 @@
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="5">
         <v>17</v>
